--- a/padam_excel/TS 1.8 Padam Input.xlsx
+++ b/padam_excel/TS 1.8 Padam Input.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\texts\padam_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\padam_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7305,7 +7305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -50576,8 +50576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2096"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A2083" workbookViewId="0">
+      <selection activeCell="B2085" sqref="B2085"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75808,7 +75808,6 @@
       <c r="D2096" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C2095"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
